--- a/biology/Zoologie/Brachymeria/Brachymeria.xlsx
+++ b/biology/Zoologie/Brachymeria/Brachymeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachymeria est un genre d'insectes hyménoptères de la famille des Chalcididae et de la sous-famille des Chalcidinae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre de guêpes parasites inclut les plus communes et plus répandues des espèces de Chalcididae[1].
-La tête est ovale de profil avec de grands yeux composés. Elle présente un scrobe profond et des bords carénés. Le frons est relativement plats et non arrondis antérieurement comme chez Trigonura. L'occiput ne présente pas de carène verticale. Les sutures fronto-génales sont bien carénées, souvent avec une carène préorbitale et postorbitale. Les antennes sont relativement courtes. L'insertion antennaire se fait au niveau ou à la périphérie dorsale des bords ventraux des yeux composés. Le scape et le pédicelle sont court et les segments sont minces[1]. 
-Le thorax est criblé de petits trous. L'apex du scutellum est arrondi ou émarginé. L'aile antérieure présente une nervure postmarginale environ moitié moins longue que la nervure marginale et généralement deux fois plus longue que la veine stigmale, la nervure postmarginale étant toujours plus longue que la stigmale. Le coxa des pattes postérieures peut présenter une dent interne chez la femelle. Le fémur des pattes postérieures est bien développé avec le bord ventral externe portant une rangée de 5 à 16 dents. Une dent fémorale interne est présente dans certains cas. Le tibia des pattes postérieures est arqué[1].
-L'abdomen est sessile avec 7 tergites. Le premier tergite est toujours le plus long et constitue généralement de un tiers à la moitié de la longueur de l'abdomen. Le sixième tergite présente une paire de spiracles. La gaine des oviscaptes est comprimée. Le sternum gastrique des mâles est légèrement gonflé avec le bord apical incurvé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre de guêpes parasites inclut les plus communes et plus répandues des espèces de Chalcididae.
+La tête est ovale de profil avec de grands yeux composés. Elle présente un scrobe profond et des bords carénés. Le frons est relativement plats et non arrondis antérieurement comme chez Trigonura. L'occiput ne présente pas de carène verticale. Les sutures fronto-génales sont bien carénées, souvent avec une carène préorbitale et postorbitale. Les antennes sont relativement courtes. L'insertion antennaire se fait au niveau ou à la périphérie dorsale des bords ventraux des yeux composés. Le scape et le pédicelle sont court et les segments sont minces. 
+Le thorax est criblé de petits trous. L'apex du scutellum est arrondi ou émarginé. L'aile antérieure présente une nervure postmarginale environ moitié moins longue que la nervure marginale et généralement deux fois plus longue que la veine stigmale, la nervure postmarginale étant toujours plus longue que la stigmale. Le coxa des pattes postérieures peut présenter une dent interne chez la femelle. Le fémur des pattes postérieures est bien développé avec le bord ventral externe portant une rangée de 5 à 16 dents. Une dent fémorale interne est présente dans certains cas. Le tibia des pattes postérieures est arqué.
+L'abdomen est sessile avec 7 tergites. Le premier tergite est toujours le plus long et constitue généralement de un tiers à la moitié de la longueur de l'abdomen. Le sixième tergite présente une paire de spiracles. La gaine des oviscaptes est comprimée. Le sternum gastrique des mâles est légèrement gonflé avec le bord apical incurvé.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beaucoup d'espèces du genre Brachymeria sont des parasites d'Orthoptera (Acrididae), de beaucoup de familles de Lepidoptera, de quelques familles de Homoptera, de Diptera (Sarcophagidae, Tachinidae), de Coleoptera et de Hymenoptera (Ichneumonidae). Elles peuvent être utilisées pour le contrôle biologique d'espèces ravageuses de ces familles. Par exemple, six espèces de Brachymeria parasitent Nephantis serinopa dont la chenille est un ravageur du cocotier[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beaucoup d'espèces du genre Brachymeria sont des parasites d'Orthoptera (Acrididae), de beaucoup de familles de Lepidoptera, de quelques familles de Homoptera, de Diptera (Sarcophagidae, Tachinidae), de Coleoptera et de Hymenoptera (Ichneumonidae). Elles peuvent être utilisées pour le contrôle biologique d'espèces ravageuses de ces familles. Par exemple, six espèces de Brachymeria parasitent Nephantis serinopa dont la chenille est un ravageur du cocotier.
 </t>
         </is>
       </c>
@@ -576,12 +592,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Brachymeria a été nommé par l'entomologiste britannique John Obadiah Westwood en 1829[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Brachymeria a été nommé par l'entomologiste britannique John Obadiah Westwood en 1829
 avec pour espèce type Brachymeria minuta (Linnaeus, 1767).
-Liste des synonymes
-Liste des synonymes[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brachymeria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brachymeria</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des synonymes :
 Thaumatelia Kirby, 1883
 Oncochalcis Cameron, 1904
 Holochalcis Kieffer, 1905
@@ -604,33 +657,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Brachymeria</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brachymeria</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces de Brachymeria[4],[5],[1],[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces de Brachymeria :
 Brachymeria acarinatus (Schmitz, 1946)
 Brachymeria achterbergi Narendran, 1989
 Brachymeria aculeata (Walker, 1862)
@@ -649,7 +704,7 @@
 Brachymeria aligherei (Girault, 1927)
 Brachymeria alternipes (Walker, 1871)
 Brachymeria ambonensis Narendran, 1989
-Brachymeria amenocles (Walker, 1846)[6]
+Brachymeria amenocles (Walker, 1846)
 Brachymeria ancilla Masi, 1951
 Brachymeria angusta (Girault &amp; Dodd, 1915)
 Brachymeria annulata (Fabricius, 1793)
@@ -661,12 +716,12 @@
 Brachymeria atricorpus (Girault, 1915)
 Brachymeria atridens (Waterston, 1922)
 Brachymeria atteviae Joseph, Narendran &amp; Joy, 1972
-Brachymeria aurea Girault, 1915[7]
+Brachymeria aurea Girault, 1915
 Brachymeria australiensis (Girault, 1913)
 Brachymeria banksi (Ashmead, 1905)
 Brachymeria bauhiniae (Steffan, 1951)
 Brachymeria bayoni Masi, 1929
-Brachymeria beccarii Masi, 1929[6]
+Brachymeria beccarii Masi, 1929
 Brachymeria beijingensis Liao &amp; Chen, 1983
 Brachymeria bengalensis (Cameron, 1897)
 Brachymeria bicolor (Girault, 1912)
@@ -811,7 +866,7 @@
 Brachymeria minuta (Linnaeus, 1767)
 Brachymeria minutissima (Girault, 1926)
 Brachymeria mnestor (Walker, 1841)
-Brachymeria mochica Delvare, 2017[6]
+Brachymeria mochica Delvare, 2017
 Brachymeria mochii Masi, 1936
 Brachymeria moerens (Ruschka, 1922)
 Brachymeria molestae Burks, 1960
@@ -926,7 +981,7 @@
 Brachymeria testacea (Blanchard, 1840)
 Brachymeria teuta (Walker, 1841)
 Brachymeria thracis (Crawford, 1911)
-Brachymeria tibialis (Walker, 1834)[8]
+Brachymeria tibialis (Walker, 1834)
 Brachymeria trinidadensis (Narendran &amp; Varghese, 1989)
 Brachymeria tristis Nikol'skaya, 1952
 Brachymeria truncata (Schmitz, 1946)
